--- a/field_scale/field_data/полевые данные общая/ведомость объемный вес Ставрополь.xlsx
+++ b/field_scale/field_data/полевые данные общая/ведомость объемный вес Ставрополь.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Другие компьютеры\Мое устройство Компьютер\RESEARCH_WORK\our_data\Полевые данные 2021\Ставрополье\Объемный вес\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\field_scale\field_data\полевые данные общая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C5743-91AD-4B8B-B180-BEFD4D4390B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D724790-4071-4FA5-A6B4-257C0D80A831}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{33F6A2B0-5900-4496-82DE-00C9791480BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Точка GPS</t>
+  </si>
+  <si>
     <t>повторность</t>
   </si>
   <si>
@@ -35,26 +38,18 @@
   <si>
     <t>Объемный вес</t>
   </si>
-  <si>
-    <t>Точка GPS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,7 +125,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +137,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -154,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -189,6 +184,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -224,9 +236,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -375,338 +404,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5297A66-DC8A-4723-9F71-2CE9F0D36D16}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>526</v>
       </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>154.57</v>
       </c>
       <c r="D2" s="1">
-        <v>154.57</v>
-      </c>
-      <c r="E2" s="1">
-        <f>D2/143.2025</f>
+        <f>C2/143.2025</f>
         <v>1.0793805974057715</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>526</v>
       </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>149.75</v>
       </c>
       <c r="D3" s="1">
-        <v>149.75</v>
-      </c>
-      <c r="E3" s="1">
-        <f>D3/143.2025</f>
+        <f>C3/143.2025</f>
         <v>1.0457219671444284</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>526</v>
       </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>154.09</v>
       </c>
       <c r="D4" s="1">
-        <v>154.09</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E21" si="0">D4/143.2025</f>
+        <f t="shared" ref="D4:D21" si="0">C4/143.2025</f>
         <v>1.0760287006162603</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>526</v>
       </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>146.38</v>
       </c>
       <c r="D5" s="1">
-        <v>146.38</v>
-      </c>
-      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>1.0221888584347341</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>525</v>
       </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>0.991602800230443</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>525</v>
       </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>150.51</v>
       </c>
       <c r="D7" s="1">
-        <v>150.51</v>
-      </c>
-      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>1.0510291370611546</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>525</v>
       </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>0.9860163055812573</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>525</v>
       </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>138.56</v>
       </c>
       <c r="D9" s="1">
-        <v>138.56</v>
-      </c>
-      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0.96758087323894493</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>527</v>
       </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>156.36000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>156.36000000000001</v>
-      </c>
-      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>1.0918803791833245</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>527</v>
       </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>167.16</v>
       </c>
       <c r="D11" s="1">
-        <v>167.16</v>
-      </c>
-      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>1.1672980569473299</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>527</v>
       </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>163.77000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>163.77000000000001</v>
-      </c>
-      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>1.143625285871406</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>527</v>
       </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>163.98</v>
       </c>
       <c r="D13" s="1">
-        <v>163.98</v>
-      </c>
-      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>1.1450917407168171</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>528</v>
       </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>125.25</v>
       </c>
       <c r="D14" s="1">
-        <v>125.25</v>
-      </c>
-      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>0.87463556851311963</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>528</v>
       </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>143.13999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>143.13999999999999</v>
-      </c>
-      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>0.99956355510553241</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>528</v>
       </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>151.54</v>
       </c>
       <c r="D16" s="1">
-        <v>151.54</v>
-      </c>
-      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>1.0582217489219812</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>528</v>
       </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>142.44999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>142.44999999999999</v>
-      </c>
-      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>0.9947452034706098</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>586</v>
       </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>121.21</v>
       </c>
       <c r="D18" s="1">
-        <v>121.21</v>
-      </c>
-      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>0.84642377053473228</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>586</v>
       </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>123.68</v>
       </c>
       <c r="D19" s="1">
-        <v>123.68</v>
-      </c>
-      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>0.86367207276409297</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>586</v>
       </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>122.58</v>
       </c>
       <c r="D20" s="1">
-        <v>122.58</v>
-      </c>
-      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>0.85599064262146274</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>586</v>
       </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>126.94</v>
       </c>
       <c r="D21" s="1">
-        <v>126.94</v>
-      </c>
-      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>0.88643703845952415</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>